--- a/Team-Data/2011-12/4-13-2011-12.xlsx
+++ b/Team-Data/2011-12/4-13-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,55 +733,55 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" t="n">
         <v>24</v>
       </c>
       <c r="G2" t="n">
-        <v>0.593</v>
+        <v>0.586</v>
       </c>
       <c r="H2" t="n">
         <v>49.1</v>
       </c>
       <c r="I2" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J2" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K2" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L2" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M2" t="n">
-        <v>19.8</v>
+        <v>19.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0.367</v>
+        <v>0.366</v>
       </c>
       <c r="O2" t="n">
         <v>15.3</v>
       </c>
       <c r="P2" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.738</v>
+        <v>0.736</v>
       </c>
       <c r="R2" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S2" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="T2" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U2" t="n">
         <v>22.1</v>
@@ -729,22 +796,22 @@
         <v>4.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
@@ -759,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="AI2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
         <v>18</v>
@@ -768,28 +835,28 @@
         <v>14</v>
       </c>
       <c r="AL2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AM2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AR2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AT2" t="n">
         <v>23</v>
@@ -801,13 +868,13 @@
         <v>5</v>
       </c>
       <c r="AW2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX2" t="n">
         <v>23</v>
       </c>
       <c r="AY2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ2" t="n">
         <v>6</v>
@@ -819,7 +886,7 @@
         <v>18</v>
       </c>
       <c r="BC2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-13-2011-12</t>
+          <t>2012-04-13</t>
         </is>
       </c>
     </row>
@@ -848,37 +915,37 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" t="n">
         <v>34</v>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" t="n">
-        <v>0.576</v>
+        <v>0.586</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="J3" t="n">
-        <v>77.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="K3" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L3" t="n">
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.365</v>
+        <v>0.368</v>
       </c>
       <c r="O3" t="n">
         <v>15.5</v>
@@ -893,7 +960,7 @@
         <v>7.8</v>
       </c>
       <c r="S3" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T3" t="n">
         <v>38.9</v>
@@ -902,10 +969,10 @@
         <v>23.8</v>
       </c>
       <c r="V3" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W3" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X3" t="n">
         <v>5.5</v>
@@ -914,34 +981,34 @@
         <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA3" t="n">
         <v>18.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.59999999999999</v>
+        <v>91.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -956,7 +1023,7 @@
         <v>24</v>
       </c>
       <c r="AN3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO3" t="n">
         <v>23</v>
@@ -971,7 +1038,7 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
@@ -980,7 +1047,7 @@
         <v>2</v>
       </c>
       <c r="AV3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW3" t="n">
         <v>19</v>
@@ -992,7 +1059,7 @@
         <v>10</v>
       </c>
       <c r="AZ3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA3" t="n">
         <v>24</v>
@@ -1001,7 +1068,7 @@
         <v>26</v>
       </c>
       <c r="BC3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-13-2011-12</t>
+          <t>2012-04-13</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" t="n">
-        <v>0.121</v>
+        <v>0.123</v>
       </c>
       <c r="H4" t="n">
         <v>48.2</v>
@@ -1048,67 +1115,67 @@
         <v>33.7</v>
       </c>
       <c r="J4" t="n">
-        <v>80.5</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.419</v>
+        <v>0.418</v>
       </c>
       <c r="L4" t="n">
         <v>4.1</v>
       </c>
       <c r="M4" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="N4" t="n">
         <v>0.304</v>
       </c>
       <c r="O4" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P4" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.749</v>
+        <v>0.752</v>
       </c>
       <c r="R4" t="n">
         <v>10.2</v>
       </c>
       <c r="S4" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="T4" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="U4" t="n">
         <v>20.4</v>
       </c>
       <c r="V4" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W4" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="X4" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y4" t="n">
         <v>5.7</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AA4" t="n">
         <v>20.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>88</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-13.4</v>
+        <v>-13.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1126,7 +1193,7 @@
         <v>30</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK4" t="n">
         <v>30</v>
@@ -1147,7 +1214,7 @@
         <v>16</v>
       </c>
       <c r="AQ4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR4" t="n">
         <v>26</v>
@@ -1159,7 +1226,7 @@
         <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV4" t="n">
         <v>12</v>
@@ -1177,7 +1244,7 @@
         <v>12</v>
       </c>
       <c r="BA4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-13-2011-12</t>
+          <t>2012-04-13</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>7.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="n">
         <v>1</v>
@@ -1302,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
         <v>9</v>
@@ -1320,7 +1387,7 @@
         <v>19</v>
       </c>
       <c r="AN5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
         <v>24</v>
@@ -1344,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="AV5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW5" t="n">
         <v>23</v>
@@ -1362,7 +1429,7 @@
         <v>28</v>
       </c>
       <c r="BB5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC5" t="n">
         <v>1</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-13-2011-12</t>
+          <t>2012-04-13</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" t="n">
         <v>19</v>
       </c>
       <c r="F6" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" t="n">
-        <v>0.333</v>
+        <v>0.339</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="J6" t="n">
         <v>81.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.422</v>
+        <v>0.423</v>
       </c>
       <c r="L6" t="n">
         <v>6.9</v>
@@ -1424,16 +1491,16 @@
         <v>19.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O6" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P6" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.714</v>
+        <v>0.711</v>
       </c>
       <c r="R6" t="n">
         <v>13</v>
@@ -1445,10 +1512,10 @@
         <v>42.7</v>
       </c>
       <c r="U6" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V6" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W6" t="n">
         <v>7.3</v>
@@ -1460,19 +1527,19 @@
         <v>6.1</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="AA6" t="n">
         <v>21.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.59999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>-6.2</v>
+        <v>-6</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE6" t="n">
         <v>26</v>
@@ -1481,7 +1548,7 @@
         <v>24</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH6" t="n">
         <v>7</v>
@@ -1490,7 +1557,7 @@
         <v>26</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
         <v>29</v>
@@ -1499,7 +1566,7 @@
         <v>13</v>
       </c>
       <c r="AM6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN6" t="n">
         <v>12</v>
@@ -1520,13 +1587,13 @@
         <v>24</v>
       </c>
       <c r="AT6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW6" t="n">
         <v>22</v>
@@ -1544,10 +1611,10 @@
         <v>6</v>
       </c>
       <c r="BB6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-13-2011-12</t>
+          <t>2012-04-13</t>
         </is>
       </c>
     </row>
@@ -1576,22 +1643,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" t="n">
         <v>26</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
       </c>
       <c r="I7" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J7" t="n">
         <v>81.8</v>
@@ -1600,52 +1667,52 @@
         <v>0.442</v>
       </c>
       <c r="L7" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M7" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="N7" t="n">
-        <v>0.336</v>
+        <v>0.334</v>
       </c>
       <c r="O7" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="P7" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R7" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S7" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T7" t="n">
-        <v>42.8</v>
+        <v>42.6</v>
       </c>
       <c r="U7" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V7" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W7" t="n">
         <v>8.6</v>
       </c>
       <c r="X7" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AB7" t="n">
         <v>95</v>
@@ -1654,10 +1721,10 @@
         <v>1.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AF7" t="n">
         <v>12</v>
@@ -1666,10 +1733,10 @@
         <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ7" t="n">
         <v>14</v>
@@ -1684,31 +1751,31 @@
         <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO7" t="n">
         <v>28</v>
       </c>
       <c r="AP7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU7" t="n">
         <v>13</v>
       </c>
       <c r="AV7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AW7" t="n">
         <v>4</v>
@@ -1729,7 +1796,7 @@
         <v>20</v>
       </c>
       <c r="BC7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-13-2011-12</t>
+          <t>2012-04-13</t>
         </is>
       </c>
     </row>
@@ -1758,64 +1825,64 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" t="n">
         <v>32</v>
       </c>
       <c r="F8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" t="n">
-        <v>0.542</v>
+        <v>0.552</v>
       </c>
       <c r="H8" t="n">
         <v>48.7</v>
       </c>
       <c r="I8" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J8" t="n">
-        <v>81.8</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.47</v>
+        <v>0.471</v>
       </c>
       <c r="L8" t="n">
         <v>6.7</v>
       </c>
       <c r="M8" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.328</v>
+        <v>0.329</v>
       </c>
       <c r="O8" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="P8" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.735</v>
+        <v>0.736</v>
       </c>
       <c r="R8" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S8" t="n">
-        <v>31.9</v>
+        <v>32.1</v>
       </c>
       <c r="T8" t="n">
         <v>43.2</v>
       </c>
       <c r="U8" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="V8" t="n">
         <v>15.5</v>
       </c>
       <c r="W8" t="n">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="X8" t="n">
         <v>5.1</v>
@@ -1827,22 +1894,22 @@
         <v>19.6</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
         <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG8" t="n">
         <v>13</v>
@@ -1854,10 +1921,10 @@
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL8" t="n">
         <v>16</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR8" t="n">
         <v>16</v>
@@ -1884,19 +1951,19 @@
         <v>7</v>
       </c>
       <c r="AT8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV8" t="n">
         <v>27</v>
       </c>
       <c r="AW8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY8" t="n">
         <v>30</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-13-2011-12</t>
+          <t>2012-04-13</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" t="n">
         <v>22</v>
       </c>
       <c r="F9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" t="n">
-        <v>0.373</v>
+        <v>0.379</v>
       </c>
       <c r="H9" t="n">
         <v>48.3</v>
@@ -1961,7 +2028,7 @@
         <v>78.90000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L9" t="n">
         <v>4.5</v>
@@ -1970,67 +2037,67 @@
         <v>13.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.341</v>
+        <v>0.342</v>
       </c>
       <c r="O9" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P9" t="n">
         <v>22.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.755</v>
+        <v>0.754</v>
       </c>
       <c r="R9" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S9" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="T9" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="U9" t="n">
         <v>18.6</v>
       </c>
       <c r="V9" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W9" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
         <v>4</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z9" t="n">
         <v>19.7</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>90.5</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>-5.5</v>
+        <v>-5.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
         <v>22</v>
       </c>
       <c r="AF9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI9" t="n">
         <v>25</v>
@@ -2039,7 +2106,7 @@
         <v>25</v>
       </c>
       <c r="AK9" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AL9" t="n">
         <v>26</v>
@@ -2057,7 +2124,7 @@
         <v>14</v>
       </c>
       <c r="AQ9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR9" t="n">
         <v>12</v>
@@ -2084,7 +2151,7 @@
         <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA9" t="n">
         <v>16</v>
@@ -2093,7 +2160,7 @@
         <v>28</v>
       </c>
       <c r="BC9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-13-2011-12</t>
+          <t>2012-04-13</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-2.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
@@ -2221,7 +2288,7 @@
         <v>11</v>
       </c>
       <c r="AK10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL10" t="n">
         <v>3</v>
@@ -2257,7 +2324,7 @@
         <v>4</v>
       </c>
       <c r="AW10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX10" t="n">
         <v>7</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-13-2011-12</t>
+          <t>2012-04-13</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" t="n">
         <v>32</v>
       </c>
       <c r="F11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" t="n">
-        <v>0.542</v>
+        <v>0.552</v>
       </c>
       <c r="H11" t="n">
         <v>48.7</v>
@@ -2334,16 +2401,16 @@
         <v>19.4</v>
       </c>
       <c r="N11" t="n">
-        <v>0.36</v>
+        <v>0.362</v>
       </c>
       <c r="O11" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="P11" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.791</v>
+        <v>0.789</v>
       </c>
       <c r="R11" t="n">
         <v>11.6</v>
@@ -2352,10 +2419,10 @@
         <v>30.5</v>
       </c>
       <c r="T11" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U11" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V11" t="n">
         <v>14.5</v>
@@ -2367,28 +2434,28 @@
         <v>4.8</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA11" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG11" t="n">
         <v>13</v>
@@ -2400,10 +2467,10 @@
         <v>5</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL11" t="n">
         <v>12</v>
@@ -2412,13 +2479,13 @@
         <v>17</v>
       </c>
       <c r="AN11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO11" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AP11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ11" t="n">
         <v>3</v>
@@ -2442,7 +2509,7 @@
         <v>18</v>
       </c>
       <c r="AX11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY11" t="n">
         <v>20</v>
@@ -2454,7 +2521,7 @@
         <v>25</v>
       </c>
       <c r="BB11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC11" t="n">
         <v>16</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-13-2011-12</t>
+          <t>2012-04-13</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" t="n">
         <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>0.627</v>
+        <v>0.621</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="J12" t="n">
-        <v>80.40000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="K12" t="n">
         <v>0.44</v>
@@ -2513,10 +2580,10 @@
         <v>5.8</v>
       </c>
       <c r="M12" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="N12" t="n">
-        <v>0.363</v>
+        <v>0.365</v>
       </c>
       <c r="O12" t="n">
         <v>20.4</v>
@@ -2525,7 +2592,7 @@
         <v>26.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.78</v>
+        <v>0.779</v>
       </c>
       <c r="R12" t="n">
         <v>12.1</v>
@@ -2534,10 +2601,10 @@
         <v>31.2</v>
       </c>
       <c r="T12" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U12" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="V12" t="n">
         <v>14.4</v>
@@ -2555,16 +2622,16 @@
         <v>21.9</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>96.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
@@ -2579,7 +2646,7 @@
         <v>8</v>
       </c>
       <c r="AI12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ12" t="n">
         <v>22</v>
@@ -2600,16 +2667,16 @@
         <v>2</v>
       </c>
       <c r="AP12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ12" t="n">
         <v>5</v>
       </c>
       <c r="AR12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT12" t="n">
         <v>6</v>
@@ -2639,7 +2706,7 @@
         <v>15</v>
       </c>
       <c r="BC12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-13-2011-12</t>
+          <t>2012-04-13</t>
         </is>
       </c>
     </row>
@@ -2746,10 +2813,10 @@
         <v>2.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF13" t="n">
         <v>7</v>
@@ -2758,7 +2825,7 @@
         <v>7</v>
       </c>
       <c r="AH13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI13" t="n">
         <v>13</v>
@@ -2779,7 +2846,7 @@
         <v>13</v>
       </c>
       <c r="AO13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP13" t="n">
         <v>12</v>
@@ -2788,7 +2855,7 @@
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS13" t="n">
         <v>25</v>
@@ -2797,7 +2864,7 @@
         <v>18</v>
       </c>
       <c r="AU13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV13" t="n">
         <v>2</v>
@@ -2809,10 +2876,10 @@
         <v>22</v>
       </c>
       <c r="AY13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA13" t="n">
         <v>5</v>
@@ -2821,7 +2888,7 @@
         <v>14</v>
       </c>
       <c r="BC13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-13-2011-12</t>
+          <t>2012-04-13</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" t="n">
         <v>22</v>
       </c>
       <c r="G14" t="n">
-        <v>0.633</v>
+        <v>0.627</v>
       </c>
       <c r="H14" t="n">
         <v>48.5</v>
@@ -2868,10 +2935,10 @@
         <v>36.6</v>
       </c>
       <c r="J14" t="n">
-        <v>79.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="K14" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L14" t="n">
         <v>5.5</v>
@@ -2880,19 +2947,19 @@
         <v>17.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.324</v>
+        <v>0.321</v>
       </c>
       <c r="O14" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P14" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.755</v>
+        <v>0.756</v>
       </c>
       <c r="R14" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S14" t="n">
         <v>34.2</v>
@@ -2901,34 +2968,34 @@
         <v>46.2</v>
       </c>
       <c r="U14" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V14" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W14" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="X14" t="n">
         <v>5.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="AA14" t="n">
         <v>20.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>96.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
@@ -2958,7 +3025,7 @@
         <v>18</v>
       </c>
       <c r="AN14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO14" t="n">
         <v>8</v>
@@ -2967,7 +3034,7 @@
         <v>9</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>11</v>
@@ -2982,7 +3049,7 @@
         <v>9</v>
       </c>
       <c r="AV14" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW14" t="n">
         <v>30</v>
@@ -2997,13 +3064,13 @@
         <v>1</v>
       </c>
       <c r="BA14" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BB14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-13-2011-12</t>
+          <t>2012-04-13</t>
         </is>
       </c>
     </row>
@@ -3110,16 +3177,16 @@
         <v>1.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF15" t="n">
         <v>8</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH15" t="n">
         <v>14</v>
@@ -3149,10 +3216,10 @@
         <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AR15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS15" t="n">
         <v>22</v>
@@ -3170,22 +3237,22 @@
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY15" t="n">
         <v>22</v>
       </c>
       <c r="AZ15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB15" t="n">
         <v>19</v>
       </c>
       <c r="BC15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-13-2011-12</t>
+          <t>2012-04-13</t>
         </is>
       </c>
     </row>
@@ -3214,46 +3281,46 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" t="n">
         <v>17</v>
       </c>
       <c r="G16" t="n">
-        <v>0.707</v>
+        <v>0.702</v>
       </c>
       <c r="H16" t="n">
         <v>48.7</v>
       </c>
       <c r="I16" t="n">
-        <v>37.7</v>
+        <v>37.5</v>
       </c>
       <c r="J16" t="n">
-        <v>79.5</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.474</v>
+        <v>0.473</v>
       </c>
       <c r="L16" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M16" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="N16" t="n">
-        <v>0.366</v>
+        <v>0.369</v>
       </c>
       <c r="O16" t="n">
         <v>19.3</v>
       </c>
       <c r="P16" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.774</v>
+        <v>0.773</v>
       </c>
       <c r="R16" t="n">
         <v>10.4</v>
@@ -3265,10 +3332,10 @@
         <v>41.6</v>
       </c>
       <c r="U16" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V16" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W16" t="n">
         <v>9.1</v>
@@ -3286,16 +3353,16 @@
         <v>20.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="AC16" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF16" t="n">
         <v>4</v>
@@ -3307,7 +3374,7 @@
         <v>3</v>
       </c>
       <c r="AI16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ16" t="n">
         <v>24</v>
@@ -3316,13 +3383,13 @@
         <v>2</v>
       </c>
       <c r="AL16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM16" t="n">
         <v>23</v>
       </c>
       <c r="AN16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO16" t="n">
         <v>5</v>
@@ -3331,22 +3398,22 @@
         <v>8</v>
       </c>
       <c r="AQ16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR16" t="n">
         <v>24</v>
       </c>
       <c r="AS16" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AT16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AU16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AV16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW16" t="n">
         <v>3</v>
@@ -3358,7 +3425,7 @@
         <v>4</v>
       </c>
       <c r="AZ16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA16" t="n">
         <v>7</v>
@@ -3367,7 +3434,7 @@
         <v>4</v>
       </c>
       <c r="BC16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-13-2011-12</t>
+          <t>2012-04-13</t>
         </is>
       </c>
     </row>
@@ -3396,31 +3463,31 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" t="n">
         <v>30</v>
       </c>
       <c r="G17" t="n">
-        <v>0.492</v>
+        <v>0.483</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
       </c>
       <c r="I17" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J17" t="n">
-        <v>85.90000000000001</v>
+        <v>85.8</v>
       </c>
       <c r="K17" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L17" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M17" t="n">
         <v>19.5</v>
@@ -3435,7 +3502,7 @@
         <v>20.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.778</v>
+        <v>0.777</v>
       </c>
       <c r="R17" t="n">
         <v>12.5</v>
@@ -3447,7 +3514,7 @@
         <v>41.9</v>
       </c>
       <c r="U17" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="V17" t="n">
         <v>14.1</v>
@@ -3456,7 +3523,7 @@
         <v>8.4</v>
       </c>
       <c r="X17" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y17" t="n">
         <v>4.6</v>
@@ -3468,13 +3535,13 @@
         <v>19.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
@@ -3489,25 +3556,25 @@
         <v>28</v>
       </c>
       <c r="AI17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ17" t="n">
         <v>2</v>
       </c>
       <c r="AK17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO17" t="n">
         <v>17</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>18</v>
       </c>
       <c r="AP17" t="n">
         <v>24</v>
@@ -3516,7 +3583,7 @@
         <v>6</v>
       </c>
       <c r="AR17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS17" t="n">
         <v>26</v>
@@ -3525,19 +3592,19 @@
         <v>17</v>
       </c>
       <c r="AU17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AW17" t="n">
         <v>6</v>
       </c>
       <c r="AX17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ17" t="n">
         <v>13</v>
@@ -3546,10 +3613,10 @@
         <v>19</v>
       </c>
       <c r="BB17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-13-2011-12</t>
+          <t>2012-04-13</t>
         </is>
       </c>
     </row>
@@ -3680,22 +3747,22 @@
         <v>26</v>
       </c>
       <c r="AL18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM18" t="n">
         <v>6</v>
       </c>
       <c r="AN18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO18" t="n">
         <v>4</v>
       </c>
       <c r="AP18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR18" t="n">
         <v>7</v>
@@ -3710,7 +3777,7 @@
         <v>25</v>
       </c>
       <c r="AV18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW18" t="n">
         <v>25</v>
@@ -3722,13 +3789,13 @@
         <v>23</v>
       </c>
       <c r="AZ18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA18" t="n">
         <v>3</v>
       </c>
       <c r="BB18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC18" t="n">
         <v>21</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-13-2011-12</t>
+          <t>2012-04-13</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" t="n">
         <v>38</v>
       </c>
       <c r="G19" t="n">
-        <v>0.367</v>
+        <v>0.356</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3787,28 +3854,28 @@
         <v>7.9</v>
       </c>
       <c r="M19" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="N19" t="n">
-        <v>0.344</v>
+        <v>0.343</v>
       </c>
       <c r="O19" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P19" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="Q19" t="n">
         <v>0.775</v>
       </c>
       <c r="R19" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S19" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="T19" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="U19" t="n">
         <v>20.1</v>
@@ -3832,19 +3899,19 @@
         <v>19.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>93.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.2</v>
+        <v>-5.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AF19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG19" t="n">
         <v>24</v>
@@ -3856,7 +3923,7 @@
         <v>28</v>
       </c>
       <c r="AJ19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK19" t="n">
         <v>28</v>
@@ -3868,7 +3935,7 @@
         <v>2</v>
       </c>
       <c r="AN19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO19" t="n">
         <v>13</v>
@@ -3880,7 +3947,7 @@
         <v>8</v>
       </c>
       <c r="AR19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AS19" t="n">
         <v>29</v>
@@ -3892,7 +3959,7 @@
         <v>21</v>
       </c>
       <c r="AV19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW19" t="n">
         <v>16</v>
@@ -3904,16 +3971,16 @@
         <v>14</v>
       </c>
       <c r="AZ19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA19" t="n">
         <v>15</v>
       </c>
       <c r="BB19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-13-2011-12</t>
+          <t>2012-04-13</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" t="n">
         <v>42</v>
       </c>
       <c r="G20" t="n">
-        <v>0.288</v>
+        <v>0.276</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3960,19 +4027,19 @@
         <v>35.2</v>
       </c>
       <c r="J20" t="n">
-        <v>77.90000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L20" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="N20" t="n">
-        <v>0.344</v>
+        <v>0.342</v>
       </c>
       <c r="O20" t="n">
         <v>15.3</v>
@@ -3981,19 +4048,19 @@
         <v>20.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.755</v>
+        <v>0.757</v>
       </c>
       <c r="R20" t="n">
         <v>11.1</v>
       </c>
       <c r="S20" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T20" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U20" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V20" t="n">
         <v>15.4</v>
@@ -4011,16 +4078,16 @@
         <v>20</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AB20" t="n">
-        <v>89.8</v>
+        <v>89.7</v>
       </c>
       <c r="AC20" t="n">
-        <v>-4.2</v>
+        <v>-4.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4032,7 +4099,7 @@
         <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4041,7 +4108,7 @@
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>29</v>
@@ -4050,22 +4117,22 @@
         <v>30</v>
       </c>
       <c r="AN20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP20" t="n">
         <v>25</v>
       </c>
       <c r="AQ20" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AR20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS20" t="n">
         <v>19</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>20</v>
       </c>
       <c r="AT20" t="n">
         <v>24</v>
@@ -4074,19 +4141,19 @@
         <v>16</v>
       </c>
       <c r="AV20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AW20" t="n">
         <v>21</v>
       </c>
       <c r="AX20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY20" t="n">
         <v>25</v>
       </c>
       <c r="AZ20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA20" t="n">
         <v>26</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-13-2011-12</t>
+          <t>2012-04-13</t>
         </is>
       </c>
     </row>
@@ -4124,61 +4191,61 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" t="n">
         <v>28</v>
       </c>
       <c r="G21" t="n">
-        <v>0.525</v>
+        <v>0.517</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J21" t="n">
         <v>81</v>
       </c>
       <c r="K21" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L21" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M21" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="N21" t="n">
-        <v>0.323</v>
+        <v>0.32</v>
       </c>
       <c r="O21" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P21" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.745</v>
+        <v>0.744</v>
       </c>
       <c r="R21" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S21" t="n">
         <v>30.8</v>
       </c>
       <c r="T21" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U21" t="n">
         <v>19.7</v>
       </c>
       <c r="V21" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W21" t="n">
         <v>9.5</v>
@@ -4187,34 +4254,34 @@
         <v>4.3</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA21" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AB21" t="n">
-        <v>97.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
@@ -4232,7 +4299,7 @@
         <v>3</v>
       </c>
       <c r="AN21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO21" t="n">
         <v>6</v>
@@ -4268,16 +4335,16 @@
         <v>18</v>
       </c>
       <c r="AZ21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA21" t="n">
         <v>2</v>
       </c>
       <c r="BB21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-13-2011-12</t>
+          <t>2012-04-13</t>
         </is>
       </c>
     </row>
@@ -4306,25 +4373,25 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E22" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F22" t="n">
         <v>16</v>
       </c>
       <c r="G22" t="n">
-        <v>0.729</v>
+        <v>0.724</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J22" t="n">
-        <v>78.8</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K22" t="n">
         <v>0.474</v>
@@ -4333,7 +4400,7 @@
         <v>7.2</v>
       </c>
       <c r="M22" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="N22" t="n">
         <v>0.36</v>
@@ -4342,19 +4409,19 @@
         <v>21</v>
       </c>
       <c r="P22" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.801</v>
+        <v>0.802</v>
       </c>
       <c r="R22" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S22" t="n">
-        <v>32.6</v>
+        <v>32.4</v>
       </c>
       <c r="T22" t="n">
-        <v>43.4</v>
+        <v>43.2</v>
       </c>
       <c r="U22" t="n">
         <v>18.5</v>
@@ -4363,7 +4430,7 @@
         <v>16.4</v>
       </c>
       <c r="W22" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X22" t="n">
         <v>8.1</v>
@@ -4372,19 +4439,19 @@
         <v>4.7</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA22" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB22" t="n">
-        <v>102.9</v>
+        <v>102.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ22" t="n">
         <v>26</v>
@@ -4408,19 +4475,19 @@
         <v>1</v>
       </c>
       <c r="AL22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ22" t="n">
         <v>1</v>
@@ -4429,10 +4496,10 @@
         <v>20</v>
       </c>
       <c r="AS22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AU22" t="n">
         <v>29</v>
@@ -4450,7 +4517,7 @@
         <v>11</v>
       </c>
       <c r="AZ22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA22" t="n">
         <v>14</v>
@@ -4459,7 +4526,7 @@
         <v>2</v>
       </c>
       <c r="BC22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-13-2011-12</t>
+          <t>2012-04-13</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" t="n">
         <v>34</v>
       </c>
       <c r="F23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G23" t="n">
-        <v>0.576</v>
+        <v>0.586</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
@@ -4506,10 +4573,10 @@
         <v>34.3</v>
       </c>
       <c r="J23" t="n">
-        <v>77.8</v>
+        <v>77.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L23" t="n">
         <v>10.2</v>
@@ -4518,13 +4585,13 @@
         <v>26.9</v>
       </c>
       <c r="N23" t="n">
-        <v>0.378</v>
+        <v>0.381</v>
       </c>
       <c r="O23" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="P23" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q23" t="n">
         <v>0.654</v>
@@ -4536,10 +4603,10 @@
         <v>31.6</v>
       </c>
       <c r="T23" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U23" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="V23" t="n">
         <v>15.2</v>
@@ -4548,37 +4615,37 @@
         <v>6.7</v>
       </c>
       <c r="X23" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y23" t="n">
         <v>4.1</v>
       </c>
       <c r="Z23" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>94</v>
+        <v>94.2</v>
       </c>
       <c r="AC23" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI23" t="n">
         <v>29</v>
@@ -4596,10 +4663,10 @@
         <v>1</v>
       </c>
       <c r="AN23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO23" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AP23" t="n">
         <v>11</v>
@@ -4608,19 +4675,19 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS23" t="n">
         <v>8</v>
       </c>
       <c r="AT23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU23" t="n">
         <v>22</v>
       </c>
       <c r="AV23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW23" t="n">
         <v>26</v>
@@ -4635,13 +4702,13 @@
         <v>4</v>
       </c>
       <c r="BA23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB23" t="n">
         <v>21</v>
       </c>
       <c r="BC23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-13-2011-12</t>
+          <t>2012-04-13</t>
         </is>
       </c>
     </row>
@@ -4670,28 +4737,28 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" t="n">
         <v>31</v>
       </c>
       <c r="F24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G24" t="n">
-        <v>0.525</v>
+        <v>0.534</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J24" t="n">
         <v>83.40000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L24" t="n">
         <v>5.2</v>
@@ -4700,13 +4767,13 @@
         <v>14.5</v>
       </c>
       <c r="N24" t="n">
-        <v>0.358</v>
+        <v>0.361</v>
       </c>
       <c r="O24" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="P24" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="Q24" t="n">
         <v>0.741</v>
@@ -4715,16 +4782,16 @@
         <v>10.4</v>
       </c>
       <c r="S24" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T24" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U24" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V24" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="W24" t="n">
         <v>8.1</v>
@@ -4733,22 +4800,22 @@
         <v>5.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z24" t="n">
         <v>17.7</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="AB24" t="n">
         <v>93.09999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -4763,7 +4830,7 @@
         <v>26</v>
       </c>
       <c r="AI24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ24" t="n">
         <v>5</v>
@@ -4778,7 +4845,7 @@
         <v>25</v>
       </c>
       <c r="AN24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4799,16 +4866,16 @@
         <v>9</v>
       </c>
       <c r="AU24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV24" t="n">
         <v>1</v>
       </c>
       <c r="AW24" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AX24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY24" t="n">
         <v>12</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-13-2011-12</t>
+          <t>2012-04-13</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F25" t="n">
         <v>28</v>
       </c>
       <c r="G25" t="n">
-        <v>0.525</v>
+        <v>0.517</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
@@ -4870,37 +4937,37 @@
         <v>37.6</v>
       </c>
       <c r="J25" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="K25" t="n">
         <v>0.458</v>
       </c>
       <c r="L25" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M25" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="N25" t="n">
-        <v>0.345</v>
+        <v>0.343</v>
       </c>
       <c r="O25" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="P25" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.759</v>
+        <v>0.757</v>
       </c>
       <c r="R25" t="n">
         <v>10.7</v>
       </c>
       <c r="S25" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T25" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U25" t="n">
         <v>22.7</v>
@@ -4909,7 +4976,7 @@
         <v>14</v>
       </c>
       <c r="W25" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X25" t="n">
         <v>5.6</v>
@@ -4918,64 +4985,64 @@
         <v>4.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>98.09999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH25" t="n">
         <v>30</v>
       </c>
       <c r="AI25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM25" t="n">
         <v>13</v>
       </c>
-      <c r="AK25" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>14</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>14</v>
-      </c>
       <c r="AN25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP25" t="n">
         <v>22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AT25" t="n">
         <v>21</v>
@@ -4996,16 +5063,16 @@
         <v>3</v>
       </c>
       <c r="AZ25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-13-2011-12</t>
+          <t>2012-04-13</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" t="n">
         <v>28</v>
       </c>
       <c r="F26" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26" t="n">
-        <v>0.467</v>
+        <v>0.475</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5064,13 +5131,13 @@
         <v>20.7</v>
       </c>
       <c r="N26" t="n">
-        <v>0.346</v>
+        <v>0.348</v>
       </c>
       <c r="O26" t="n">
         <v>17.3</v>
       </c>
       <c r="P26" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="Q26" t="n">
         <v>0.797</v>
@@ -5082,7 +5149,7 @@
         <v>29.8</v>
       </c>
       <c r="T26" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U26" t="n">
         <v>20.6</v>
@@ -5112,10 +5179,10 @@
         <v>0.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF26" t="n">
         <v>20</v>
@@ -5124,40 +5191,40 @@
         <v>20</v>
       </c>
       <c r="AH26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL26" t="n">
         <v>10</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>11</v>
       </c>
       <c r="AM26" t="n">
         <v>9</v>
       </c>
       <c r="AN26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO26" t="n">
         <v>12</v>
       </c>
       <c r="AP26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ26" t="n">
         <v>2</v>
       </c>
       <c r="AR26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS26" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AT26" t="n">
         <v>25</v>
@@ -5169,25 +5236,25 @@
         <v>9</v>
       </c>
       <c r="AW26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX26" t="n">
         <v>16</v>
       </c>
       <c r="AY26" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA26" t="n">
         <v>13</v>
       </c>
       <c r="BB26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-13-2011-12</t>
+          <t>2012-04-13</t>
         </is>
       </c>
     </row>
@@ -5216,52 +5283,52 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" t="n">
         <v>19</v>
       </c>
       <c r="F27" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G27" t="n">
-        <v>0.317</v>
+        <v>0.322</v>
       </c>
       <c r="H27" t="n">
         <v>48.3</v>
       </c>
       <c r="I27" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="J27" t="n">
-        <v>86.2</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.431</v>
+        <v>0.432</v>
       </c>
       <c r="L27" t="n">
         <v>6.3</v>
       </c>
       <c r="M27" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="N27" t="n">
-        <v>0.315</v>
+        <v>0.314</v>
       </c>
       <c r="O27" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P27" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="Q27" t="n">
         <v>0.738</v>
       </c>
       <c r="R27" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="S27" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T27" t="n">
         <v>43.3</v>
@@ -5279,22 +5346,22 @@
         <v>4.8</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>-6.3</v>
+        <v>-5.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
@@ -5306,7 +5373,7 @@
         <v>27</v>
       </c>
       <c r="AH27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI27" t="n">
         <v>12</v>
@@ -5321,7 +5388,7 @@
         <v>18</v>
       </c>
       <c r="AM27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN27" t="n">
         <v>28</v>
@@ -5333,43 +5400,43 @@
         <v>10</v>
       </c>
       <c r="AQ27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR27" t="n">
         <v>2</v>
       </c>
       <c r="AS27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AT27" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AU27" t="n">
         <v>26</v>
       </c>
       <c r="AV27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW27" t="n">
         <v>5</v>
       </c>
       <c r="AX27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY27" t="n">
         <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA27" t="n">
         <v>9</v>
       </c>
       <c r="BB27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-13-2011-12</t>
+          <t>2012-04-13</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>5.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5494,10 +5561,10 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL28" t="n">
         <v>2</v>
@@ -5509,13 +5576,13 @@
         <v>2</v>
       </c>
       <c r="AO28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="n">
         <v>21</v>
       </c>
       <c r="AQ28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR28" t="n">
         <v>25</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-13-2011-12</t>
+          <t>2012-04-13</t>
         </is>
       </c>
     </row>
@@ -5580,28 +5647,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F29" t="n">
         <v>39</v>
       </c>
       <c r="G29" t="n">
-        <v>0.35</v>
+        <v>0.339</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="J29" t="n">
-        <v>78.09999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="K29" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L29" t="n">
         <v>5.6</v>
@@ -5610,34 +5677,34 @@
         <v>16.5</v>
       </c>
       <c r="N29" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O29" t="n">
-        <v>16.8</v>
+        <v>16.6</v>
       </c>
       <c r="P29" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.771</v>
+        <v>0.769</v>
       </c>
       <c r="R29" t="n">
         <v>10.5</v>
       </c>
       <c r="S29" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="T29" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U29" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V29" t="n">
         <v>15</v>
       </c>
       <c r="W29" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X29" t="n">
         <v>4.9</v>
@@ -5646,19 +5713,19 @@
         <v>5</v>
       </c>
       <c r="Z29" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="AB29" t="n">
-        <v>91.09999999999999</v>
+        <v>91.3</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.5</v>
+        <v>-3.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
         <v>25</v>
@@ -5667,10 +5734,10 @@
         <v>26</v>
       </c>
       <c r="AG29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI29" t="n">
         <v>27</v>
@@ -5682,7 +5749,7 @@
         <v>21</v>
       </c>
       <c r="AL29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM29" t="n">
         <v>20</v>
@@ -5694,7 +5761,7 @@
         <v>15</v>
       </c>
       <c r="AP29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ29" t="n">
         <v>11</v>
@@ -5703,31 +5770,31 @@
         <v>22</v>
       </c>
       <c r="AS29" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AT29" t="n">
         <v>19</v>
       </c>
       <c r="AU29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW29" t="n">
         <v>28</v>
       </c>
       <c r="AX29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB29" t="n">
         <v>27</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-13-2011-12</t>
+          <t>2012-04-13</t>
         </is>
       </c>
     </row>
@@ -5762,25 +5829,25 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E30" t="n">
         <v>31</v>
       </c>
       <c r="F30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G30" t="n">
-        <v>0.517</v>
+        <v>0.525</v>
       </c>
       <c r="H30" t="n">
         <v>48.8</v>
       </c>
       <c r="I30" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J30" t="n">
-        <v>83.59999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="K30" t="n">
         <v>0.456</v>
@@ -5792,7 +5859,7 @@
         <v>12.5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.31</v>
+        <v>0.312</v>
       </c>
       <c r="O30" t="n">
         <v>18.8</v>
@@ -5801,13 +5868,13 @@
         <v>25.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.751</v>
+        <v>0.75</v>
       </c>
       <c r="R30" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="S30" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="T30" t="n">
         <v>43.8</v>
@@ -5831,34 +5898,34 @@
         <v>22</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>15</v>
       </c>
       <c r="AF30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AG30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH30" t="n">
         <v>2</v>
       </c>
       <c r="AI30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK30" t="n">
         <v>9</v>
@@ -5876,28 +5943,28 @@
         <v>7</v>
       </c>
       <c r="AP30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR30" t="n">
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AT30" t="n">
         <v>4</v>
       </c>
       <c r="AU30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV30" t="n">
         <v>11</v>
       </c>
       <c r="AW30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX30" t="n">
         <v>4</v>
@@ -5912,10 +5979,10 @@
         <v>8</v>
       </c>
       <c r="BB30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-13-2011-12</t>
+          <t>2012-04-13</t>
         </is>
       </c>
     </row>
@@ -5944,37 +6011,37 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E31" t="n">
         <v>14</v>
       </c>
       <c r="F31" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G31" t="n">
-        <v>0.237</v>
+        <v>0.241</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.1</v>
+        <v>36.3</v>
       </c>
       <c r="J31" t="n">
-        <v>82.59999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="K31" t="n">
-        <v>0.437</v>
+        <v>0.439</v>
       </c>
       <c r="L31" t="n">
         <v>5.3</v>
       </c>
       <c r="M31" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="N31" t="n">
-        <v>0.321</v>
+        <v>0.324</v>
       </c>
       <c r="O31" t="n">
         <v>15.7</v>
@@ -5983,46 +6050,46 @@
         <v>21.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.73</v>
+        <v>0.729</v>
       </c>
       <c r="R31" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S31" t="n">
         <v>29.8</v>
       </c>
       <c r="T31" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U31" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="V31" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W31" t="n">
         <v>7.7</v>
       </c>
       <c r="X31" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Y31" t="n">
         <v>4.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA31" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB31" t="n">
-        <v>93.2</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>-6.7</v>
+        <v>-6.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6037,13 +6104,13 @@
         <v>28</v>
       </c>
       <c r="AI31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK31" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL31" t="n">
         <v>24</v>
@@ -6052,10 +6119,10 @@
         <v>21</v>
       </c>
       <c r="AN31" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP31" t="n">
         <v>19</v>
@@ -6067,16 +6134,16 @@
         <v>13</v>
       </c>
       <c r="AS31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU31" t="n">
         <v>27</v>
       </c>
       <c r="AV31" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AW31" t="n">
         <v>15</v>
@@ -6091,7 +6158,7 @@
         <v>26</v>
       </c>
       <c r="BA31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB31" t="n">
         <v>24</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-13-2011-12</t>
+          <t>2012-04-13</t>
         </is>
       </c>
     </row>
